--- a/draft/тз.xlsx
+++ b/draft/тз.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
   <si>
     <t>tax-system</t>
   </si>
@@ -886,43 +886,67 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -946,68 +970,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1020,33 +1047,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K4"/>
+      <selection activeCell="A17" sqref="A16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,96 +1397,96 @@
       <c r="I1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="57"/>
+      <c r="K1" s="65"/>
       <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="49">
         <v>4</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="58" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="53"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="46"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="74"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
       <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42" t="s">
+      <c r="N3" s="69"/>
+      <c r="O3" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="42"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="60" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
       <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="51"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="41"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="25" t="s">
         <v>54</v>
       </c>
@@ -1495,20 +1495,20 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
       <c r="I5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="45">
         <v>4</v>
       </c>
-      <c r="K5" s="69"/>
+      <c r="K5" s="46"/>
       <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
@@ -1523,69 +1523,69 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="60" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="58"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="N6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="47">
+      <c r="O6" s="75">
         <v>1999</v>
       </c>
-      <c r="P6" s="49">
+      <c r="P6" s="77">
         <v>2999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
       <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="65"/>
-      <c r="K7" s="59"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="50"/>
       <c r="L7" s="15" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="50"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="78"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="49">
         <v>4</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="60" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="55" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -1617,11 +1617,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="61"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1631,10 +1631,10 @@
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="70">
+      <c r="J9" s="51">
         <v>4</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="49">
         <v>4</v>
       </c>
       <c r="L9" s="15" t="s">
@@ -1645,84 +1645,84 @@
       <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="55" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="73"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="15" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="61"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="7"/>
       <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="K11" s="59"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="50"/>
       <c r="L11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="38" t="s">
+      <c r="N11" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="40"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="68"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="41"/>
-      <c r="O12" s="42" t="s">
+      <c r="N12" s="69"/>
+      <c r="O12" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="42"/>
+      <c r="P12" s="70"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="N13" s="41"/>
+      <c r="G13" s="56"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="25" t="s">
         <v>54</v>
       </c>
@@ -1731,12 +1731,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
       <c r="N14" s="31" t="s">
         <v>11</v>
       </c>
@@ -1751,12 +1751,12 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="75" t="s">
+      <c r="I15" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="77"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="41"/>
       <c r="N15" s="33" t="s">
         <v>10</v>
       </c>
@@ -1772,12 +1772,12 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="75" t="s">
+      <c r="I16" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="77"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
       <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1785,12 +1785,12 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="74" t="s">
+      <c r="I17" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
       <c r="N17" s="35" t="s">
         <v>62</v>
       </c>
@@ -1807,12 +1807,12 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="74" t="s">
+      <c r="I18" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
@@ -1821,12 +1821,12 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -1835,12 +1835,12 @@
       <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="74" t="s">
+      <c r="I20" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
@@ -1849,12 +1849,12 @@
       <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="74" t="s">
+      <c r="I21" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -1976,14 +1976,43 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
@@ -2000,43 +2029,14 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2078,214 +2078,220 @@
       <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="57"/>
+      <c r="I1" s="65"/>
       <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="83"/>
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="86"/>
+      <c r="I2" s="82"/>
       <c r="J2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="87"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="83"/>
       <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="51"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="60" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="58"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="49"/>
       <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="59"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="50"/>
       <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="88">
+      <c r="H5" s="84">
         <v>4</v>
       </c>
-      <c r="I5" s="89"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="60" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="64"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="65"/>
-      <c r="G7" s="90" t="s">
+      <c r="A7" s="90"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="48"/>
+      <c r="G7" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="79" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="79"/>
-      <c r="G9" s="83" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="G9" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11"/>
-      <c r="G11" s="83" t="s">
+      <c r="G11" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="83" t="s">
+      <c r="G12" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="G13" s="91" t="s">
+      <c r="G13" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
-      <c r="G14" s="91" t="s">
+      <c r="G14" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
-      <c r="G15" s="91" t="s">
+      <c r="G15" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="G16" s="91" t="s">
+      <c r="G16" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="G17" s="91" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -2308,29 +2314,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -2344,6 +2327,29 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/draft/тз.xlsx
+++ b/draft/тз.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
     <sheet name="Person" sheetId="2" r:id="rId2"/>
     <sheet name="Менять при смене квартала" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="85">
   <si>
     <t>tax-system</t>
   </si>
@@ -795,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -886,6 +887,117 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -901,151 +1013,49 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1356,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A16:B17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,96 +1407,98 @@
       <c r="I1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="65"/>
+      <c r="K1" s="58"/>
       <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="59">
         <v>4</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="49" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="G2" s="63"/>
       <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="72" t="s">
+      <c r="N2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="74"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="64"/>
       <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="70" t="s">
+      <c r="N3" s="42"/>
+      <c r="O3" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="70"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="59">
+        <v>4</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="63"/>
       <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="69"/>
+      <c r="N4" s="42"/>
       <c r="O4" s="25" t="s">
         <v>54</v>
       </c>
@@ -1495,20 +1507,20 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="64"/>
       <c r="I5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="69">
         <v>4</v>
       </c>
-      <c r="K5" s="46"/>
+      <c r="K5" s="70"/>
       <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
@@ -1523,77 +1535,73 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="55" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="63"/>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="49"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="N6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="75">
+      <c r="O6" s="48">
         <v>1999</v>
       </c>
-      <c r="P6" s="77">
+      <c r="P6" s="50">
         <v>2999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="64"/>
       <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="50"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="15" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="76"/>
-      <c r="P7" s="78"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="51"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="59">
         <v>4</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="65"/>
+      <c r="E8" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="I8" s="10" t="s">
         <v>24</v>
       </c>
@@ -1617,24 +1625,20 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="57"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="71">
         <v>4</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="59">
         <v>4</v>
       </c>
       <c r="L9" s="15" t="s">
@@ -1645,84 +1649,80 @@
       <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="55" t="s">
+      <c r="B10" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="59">
+        <v>4</v>
+      </c>
+      <c r="D10" s="65"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="61" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="54"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="74"/>
       <c r="L10" s="15" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="56"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="7"/>
       <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="50"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="66" t="s">
+      <c r="N11" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="67"/>
-      <c r="P11" s="68"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="41"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="55" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="69"/>
-      <c r="O12" s="70" t="s">
+      <c r="N12" s="42"/>
+      <c r="O12" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="70"/>
+      <c r="P12" s="43"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="56"/>
-      <c r="N13" s="69"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="62"/>
+      <c r="N13" s="42"/>
       <c r="O13" s="25" t="s">
         <v>54</v>
       </c>
@@ -1731,12 +1731,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
       <c r="N14" s="31" t="s">
         <v>11</v>
       </c>
@@ -1751,12 +1751,12 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="41"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
       <c r="N15" s="33" t="s">
         <v>10</v>
       </c>
@@ -1772,12 +1772,12 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78"/>
       <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1785,12 +1785,12 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
       <c r="N17" s="35" t="s">
         <v>62</v>
       </c>
@@ -1807,12 +1807,12 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
@@ -1821,12 +1821,12 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -1835,12 +1835,12 @@
       <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
@@ -1849,12 +1849,12 @@
       <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -1934,7 +1934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>23</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>24</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>25</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>26</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>27</v>
       </c>
@@ -1975,44 +1975,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
+  <mergeCells count="62">
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
@@ -2029,14 +2002,42 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2047,8 +2048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,214 +2079,214 @@
       <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="65"/>
+      <c r="I1" s="58"/>
       <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="83"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="88"/>
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="82"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="83"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="88"/>
       <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="59"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="59"/>
       <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="50"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="60"/>
       <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="84">
+      <c r="H5" s="89">
         <v>4</v>
       </c>
-      <c r="I5" s="85"/>
+      <c r="I5" s="90"/>
       <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="55" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="65"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="90"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="48"/>
-      <c r="G7" s="86" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="66"/>
+      <c r="G7" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="G9" s="80" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="80"/>
+      <c r="G9" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="80" t="s">
+      <c r="G10" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11"/>
-      <c r="G11" s="80" t="s">
+      <c r="G11" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="80" t="s">
+      <c r="G12" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="G13" s="79" t="s">
+      <c r="G13" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
-      <c r="G14" s="79" t="s">
+      <c r="G14" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="G16" s="79" t="s">
+      <c r="G16" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="79" t="s">
+      <c r="G17" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -2314,6 +2315,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -2327,29 +2351,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2414,4 +2415,694 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" customWidth="1"/>
+    <col min="13" max="13" width="2.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="23" customWidth="1"/>
+    <col min="15" max="16" width="11.5703125" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="58"/>
+      <c r="L1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="59">
+        <v>4</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="I2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="54"/>
+      <c r="L2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="I3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="43"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="I4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="52"/>
+      <c r="L4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="42"/>
+      <c r="O4" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="I5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="69">
+        <v>4</v>
+      </c>
+      <c r="K5" s="70"/>
+      <c r="L5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="32">
+        <v>1499</v>
+      </c>
+      <c r="P5" s="32">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="I6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="65"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="48">
+        <v>1999</v>
+      </c>
+      <c r="P6" s="50">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="57"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="I7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="66"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="49"/>
+      <c r="P7" s="51"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="59">
+        <v>4</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="32">
+        <v>2499</v>
+      </c>
+      <c r="P8" s="32">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="71">
+        <v>4</v>
+      </c>
+      <c r="K9" s="59">
+        <v>4</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="I10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="72"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="26"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="7"/>
+      <c r="I11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="73"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="40"/>
+      <c r="P11" s="41"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="42"/>
+      <c r="O12" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="43"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="62"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I14" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="N14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="32">
+        <v>999</v>
+      </c>
+      <c r="P14" s="32">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
+      <c r="N15" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="34">
+        <v>1499</v>
+      </c>
+      <c r="P15" s="34">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78"/>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="N17" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="J2:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/draft/тз.xlsx
+++ b/draft/тз.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="474"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
     <sheet name="Person" sheetId="2" r:id="rId2"/>
     <sheet name="Менять при смене квартала" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
+    <sheet name="old" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="85">
   <si>
     <t>tax-system</t>
   </si>
@@ -796,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -890,43 +890,67 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -950,68 +974,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1025,37 +1052,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1364,27 +1361,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="2" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="2.28515625" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="23" customWidth="1"/>
-    <col min="15" max="16" width="11.5703125" style="22" customWidth="1"/>
+    <col min="2" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="12" max="12" width="2.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="23" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" style="22" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1396,648 +1394,618 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="66"/>
+      <c r="K1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="50">
+        <v>4</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="H2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="62"/>
+      <c r="K2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="74"/>
+      <c r="O2" s="75"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="65"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="40"/>
+      <c r="H3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="70"/>
+      <c r="N3" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="71"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="50">
+        <v>4</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="39"/>
+      <c r="H4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="60"/>
+      <c r="K4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="70"/>
+      <c r="N4" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="65"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="40"/>
+      <c r="H5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="46">
+        <v>4</v>
+      </c>
+      <c r="J5" s="47"/>
+      <c r="K5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="32">
+        <v>1499</v>
+      </c>
+      <c r="O5" s="32">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="39"/>
+      <c r="H6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="48"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="78">
+        <v>1999</v>
+      </c>
+      <c r="O6" s="78">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="65"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="40"/>
+      <c r="H7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B8" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="50">
         <v>4</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="59">
+      <c r="D8" s="48"/>
+      <c r="E8" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="H8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="32">
+        <v>2499</v>
+      </c>
+      <c r="O8" s="32">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="65"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="52">
         <v>4</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="63"/>
-      <c r="I2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="64"/>
-      <c r="I3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43" t="s">
+      <c r="J9" s="50">
+        <v>4</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="65"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="57"/>
+      <c r="H11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="68"/>
+      <c r="O11" s="69"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12" s="70"/>
+      <c r="N12" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="43"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="59">
+      <c r="O12" s="71"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="70"/>
+      <c r="N13" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="25">
         <v>4</v>
       </c>
-      <c r="C4" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="63"/>
-      <c r="I4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="M14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="32">
+        <v>999</v>
+      </c>
+      <c r="O14" s="32">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="44"/>
+      <c r="M15" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="34">
+        <v>1499</v>
+      </c>
+      <c r="O15" s="34">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="64"/>
-      <c r="I5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="69">
-        <v>4</v>
-      </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="32">
-        <v>1499</v>
-      </c>
-      <c r="P5" s="32">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="63"/>
-      <c r="I6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="48">
-        <v>1999</v>
-      </c>
-      <c r="P6" s="50">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="64"/>
-      <c r="I7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" s="49"/>
-      <c r="P7" s="51"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="59">
-        <v>4</v>
-      </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="I8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="32">
-        <v>2499</v>
-      </c>
-      <c r="P8" s="32">
-        <v>3499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="I9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="71">
-        <v>4</v>
-      </c>
-      <c r="K9" s="59">
-        <v>4</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="59">
-        <v>4</v>
-      </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="I10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="72"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="26"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="7"/>
-      <c r="I11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="73"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="40"/>
-      <c r="P11" s="41"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" s="43"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="62"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I14" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="N14" s="31" t="s">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
+      <c r="M16" s="22"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="32">
-        <v>999</v>
-      </c>
-      <c r="P14" s="32">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
-      <c r="N15" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="34">
-        <v>1499</v>
-      </c>
-      <c r="P15" s="34">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
-      <c r="N16" s="22"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="N17" s="35" t="s">
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="M17" s="35" t="s">
         <v>62</v>
       </c>
+      <c r="N17" s="35"/>
       <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="P17" s="36"/>
       <c r="Q17" s="36"/>
       <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>4</v>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" t="s">
         <v>38</v>
       </c>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
+  <mergeCells count="52">
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2079,214 +2047,214 @@
       <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="58"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="88"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="84"/>
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="87"/>
+      <c r="I2" s="83"/>
       <c r="J2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="88"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="84"/>
       <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="52"/>
+      <c r="I3" s="60"/>
       <c r="J3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="61" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="59"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="50"/>
       <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="60"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="51"/>
       <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="89">
+      <c r="H5" s="85">
         <v>4</v>
       </c>
-      <c r="I5" s="90"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="61" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="65"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="66"/>
-      <c r="G7" s="91" t="s">
+      <c r="A7" s="91"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="49"/>
+      <c r="G7" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="80" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="80"/>
-      <c r="G9" s="84" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="89"/>
+      <c r="G9" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11"/>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="G13" s="92" t="s">
+      <c r="G13" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
-      <c r="G14" s="92" t="s">
+      <c r="G14" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="G16" s="92" t="s">
+      <c r="G16" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="92" t="s">
+      <c r="G17" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -2315,29 +2283,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -2351,6 +2296,29 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2421,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,96 +2430,96 @@
       <c r="I1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="58"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="59">
+      <c r="C2" s="50">
         <v>4</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="59" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="54"/>
+      <c r="K2" s="62"/>
       <c r="L2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="75"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43" t="s">
+      <c r="N3" s="70"/>
+      <c r="O3" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="43"/>
+      <c r="P3" s="71"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="61" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="42"/>
+      <c r="N4" s="70"/>
       <c r="O4" s="25" t="s">
         <v>54</v>
       </c>
@@ -2560,20 +2528,20 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
       <c r="I5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="46">
         <v>4</v>
       </c>
-      <c r="K5" s="70"/>
+      <c r="K5" s="47"/>
       <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
@@ -2588,69 +2556,69 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="61" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="59"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="N6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="48">
+      <c r="O6" s="76">
         <v>1999</v>
       </c>
-      <c r="P6" s="50">
+      <c r="P6" s="78">
         <v>2999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
       <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="60"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="51"/>
       <c r="L7" s="15" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="49"/>
-      <c r="P7" s="51"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="79"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="50">
         <v>4</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="61" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="56" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -2682,11 +2650,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="62"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
@@ -2696,10 +2664,10 @@
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="71">
+      <c r="J9" s="52">
         <v>4</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="50">
         <v>4</v>
       </c>
       <c r="L9" s="15" t="s">
@@ -2710,84 +2678,84 @@
       <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="56" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="72"/>
-      <c r="K10" s="74"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="15" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="62"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="7"/>
       <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="73"/>
-      <c r="K11" s="60"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="51"/>
       <c r="L11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="40"/>
-      <c r="P11" s="41"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="69"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="43" t="s">
+      <c r="N12" s="70"/>
+      <c r="O12" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="43"/>
+      <c r="P12" s="71"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="62"/>
-      <c r="N13" s="42"/>
+      <c r="G13" s="57"/>
+      <c r="N13" s="70"/>
       <c r="O13" s="25" t="s">
         <v>54</v>
       </c>
@@ -2796,12 +2764,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I14" s="79" t="s">
+      <c r="I14" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
       <c r="N14" s="31" t="s">
         <v>11</v>
       </c>
@@ -2816,12 +2784,12 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="76" t="s">
+      <c r="I15" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44"/>
       <c r="N15" s="33" t="s">
         <v>10</v>
       </c>
@@ -2837,12 +2805,12 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="76" t="s">
+      <c r="I16" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
       <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2850,12 +2818,12 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="75" t="s">
+      <c r="I17" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
       <c r="N17" s="35" t="s">
         <v>62</v>
       </c>
@@ -2872,12 +2840,12 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="75" t="s">
+      <c r="I18" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
@@ -2886,12 +2854,12 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="75" t="s">
+      <c r="I19" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -2900,12 +2868,12 @@
       <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
@@ -2914,12 +2882,12 @@
       <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="75" t="s">
+      <c r="I21" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -3041,26 +3009,36 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="O6:O7"/>
@@ -3072,36 +3050,26 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="N12:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/draft/тз.xlsx
+++ b/draft/тз.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="474"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
     <sheet name="Person" sheetId="2" r:id="rId2"/>
     <sheet name="Менять при смене квартала" sheetId="3" r:id="rId3"/>
-    <sheet name="old" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
   <si>
     <t>tax-system</t>
   </si>
@@ -796,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -887,75 +886,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1050,9 +1046,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,28 +1354,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="2" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" customWidth="1"/>
-    <col min="12" max="12" width="2.28515625" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="23" customWidth="1"/>
-    <col min="14" max="15" width="11.5703125" style="22" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="2" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" customWidth="1"/>
+    <col min="13" max="13" width="2.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="23" customWidth="1"/>
+    <col min="15" max="16" width="11.5703125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1394,586 +1386,619 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="N1" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="49">
         <v>4</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="J2" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="61"/>
+      <c r="L2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="N2" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="40"/>
-      <c r="H3" s="10" t="s">
+      <c r="O2" s="73"/>
+      <c r="P2" s="74"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="64"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="15" t="s">
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="70"/>
-      <c r="N3" s="71" t="s">
+      <c r="N3" s="69"/>
+      <c r="O3" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="71"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="P3" s="70"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="49"/>
+      <c r="C4" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="I4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="59"/>
+      <c r="L4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="69"/>
+      <c r="O4" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="25">
         <v>4</v>
       </c>
-      <c r="C4" s="56" t="s">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="64"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="I5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="45">
+        <v>4</v>
+      </c>
+      <c r="K5" s="46"/>
+      <c r="L5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="32">
+        <v>1499</v>
+      </c>
+      <c r="P5" s="32">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="39"/>
-      <c r="H4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="15" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="I6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="47"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="25" t="s">
+      <c r="N6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="75">
+        <v>1999</v>
+      </c>
+      <c r="P6" s="77">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="64"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="I7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="48"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="76"/>
+      <c r="P7" s="78"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="49">
+        <v>4</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="32">
+        <v>2499</v>
+      </c>
+      <c r="P8" s="32">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="64"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="51">
+        <v>4</v>
+      </c>
+      <c r="K9" s="49">
+        <v>4</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="I10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="26"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="7"/>
+      <c r="I11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="53"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="67"/>
+      <c r="P11" s="68"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="69"/>
+      <c r="O12" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="70"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="25">
+      <c r="P13" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="40"/>
-      <c r="H5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="46">
-        <v>4</v>
-      </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="32">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I14" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="N14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="32">
+        <v>999</v>
+      </c>
+      <c r="P14" s="32">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="41"/>
+      <c r="N15" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="34">
         <v>1499</v>
       </c>
-      <c r="O5" s="32">
+      <c r="P15" s="34">
         <v>2499</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="39"/>
-      <c r="H6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="78">
-        <v>1999</v>
-      </c>
-      <c r="O6" s="78">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="40"/>
-      <c r="H7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="50">
-        <v>4</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="H8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" s="32">
-        <v>2499</v>
-      </c>
-      <c r="O8" s="32">
-        <v>3499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="7"/>
-      <c r="H9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="52">
-        <v>4</v>
-      </c>
-      <c r="J9" s="50">
-        <v>4</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="57"/>
-      <c r="H11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="67" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="68"/>
-      <c r="O11" s="69"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M12" s="70"/>
-      <c r="N12" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" s="71"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="70"/>
-      <c r="N13" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="M14" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="32">
-        <v>999</v>
-      </c>
-      <c r="O14" s="32">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="44"/>
-      <c r="M15" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="34">
-        <v>1499</v>
-      </c>
-      <c r="O15" s="34">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="44"/>
-      <c r="M16" s="22"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="41" t="s">
+      <c r="I17" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="M17" s="35" t="s">
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="N17" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="35"/>
       <c r="O17" s="35"/>
-      <c r="P17" s="36"/>
+      <c r="P17" s="35"/>
       <c r="Q17" s="36"/>
       <c r="R17" s="36"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="S17" s="36"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="I20" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="I21" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N6:N7"/>
+  <mergeCells count="61">
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J2:K3"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="B6:B7"/>
@@ -1982,30 +2007,36 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2016,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,214 +2078,214 @@
       <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="66"/>
+      <c r="I1" s="65"/>
       <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="84"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="83"/>
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="83"/>
+      <c r="I2" s="82"/>
       <c r="J2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="84"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="83"/>
       <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="60"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="49"/>
       <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="51"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="50"/>
       <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="85">
+      <c r="H5" s="84">
         <v>4</v>
       </c>
-      <c r="I5" s="86"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="56" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="48"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="49"/>
-      <c r="G7" s="87" t="s">
+      <c r="A7" s="90"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="48"/>
+      <c r="G7" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="89"/>
-      <c r="G9" s="81" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="G9" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="81" t="s">
+      <c r="G10" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11"/>
-      <c r="G11" s="81" t="s">
+      <c r="G11" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
-      <c r="G14" s="80" t="s">
+      <c r="G14" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
-      <c r="G15" s="80" t="s">
+      <c r="G15" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="G16" s="80" t="s">
+      <c r="G16" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -2383,694 +2414,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S37"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="2" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="2.28515625" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="23" customWidth="1"/>
-    <col min="15" max="16" width="11.5703125" style="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="50">
-        <v>4</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="I2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="75"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="I3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="70"/>
-      <c r="O3" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="71"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="I4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="70"/>
-      <c r="O4" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="I5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="46">
-        <v>4</v>
-      </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="32">
-        <v>1499</v>
-      </c>
-      <c r="P5" s="32">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="I6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="76">
-        <v>1999</v>
-      </c>
-      <c r="P6" s="78">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="I7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" s="77"/>
-      <c r="P7" s="79"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="50">
-        <v>4</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="32">
-        <v>2499</v>
-      </c>
-      <c r="P8" s="32">
-        <v>3499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="52">
-        <v>4</v>
-      </c>
-      <c r="K9" s="50">
-        <v>4</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="I10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="26"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="7"/>
-      <c r="I11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="68"/>
-      <c r="P11" s="69"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="70"/>
-      <c r="O12" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" s="71"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="57"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I14" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="N14" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="32">
-        <v>999</v>
-      </c>
-      <c r="P14" s="32">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44"/>
-      <c r="N15" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="34">
-        <v>1499</v>
-      </c>
-      <c r="P15" s="34">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="44"/>
-      <c r="N16" s="22"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="N17" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="N12:N13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>